--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/IvaServicios.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/IvaServicios.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="47">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -660,9 +660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -672,7 +672,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,9 +705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -717,7 +717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -750,9 +750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -762,7 +762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,9 +795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -807,7 +807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,9 +840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -852,7 +852,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,9 +885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -897,7 +897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,9 +930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -942,7 +942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -975,9 +975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -987,7 +987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,9 +1020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1032,7 +1032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,9 +1065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1077,7 +1077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,9 +1110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1122,7 +1122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1155,9 +1155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1167,7 +1167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,9 +1200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1212,7 +1212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1245,9 +1245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1456920</xdr:colOff>
+      <xdr:colOff>1455480</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>285120</xdr:rowOff>
+      <xdr:rowOff>284400</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1257,7 +1257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4370040" cy="6727680"/>
+          <a:ext cx="4367520" cy="6726960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,8 +1291,8 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E17" activeCellId="0" sqref="E17:E18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1827,8 +1827,8 @@
       <c r="D17" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="22" t="s">
-        <v>46</v>
+      <c r="E17" s="22" t="n">
+        <v>0</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>41</v>
@@ -1954,13 +1954,13 @@
         <v>43</v>
       </c>
       <c r="F20" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H20" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I20" s="23" t="s">
         <v>39</v>
@@ -1995,13 +1995,13 @@
         <v>43</v>
       </c>
       <c r="F21" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I21" s="23" t="s">
         <v>39</v>

--- a/src/main/resources/com/relative/brecreditosnuevos/matrices/IvaServicios.xlsx
+++ b/src/main/resources/com/relative/brecreditosnuevos/matrices/IvaServicios.xlsx
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="47">
   <si>
     <t xml:space="preserve">RuleSet</t>
   </si>
@@ -660,9 +660,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -672,7 +672,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,9 +705,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -717,7 +717,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -750,9 +750,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -762,7 +762,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -795,9 +795,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -807,7 +807,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -840,9 +840,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -852,7 +852,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -885,9 +885,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -897,7 +897,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,9 +930,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -942,7 +942,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -975,9 +975,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -987,7 +987,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1020,9 +1020,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1032,7 +1032,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1065,9 +1065,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1077,7 +1077,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1110,9 +1110,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1122,7 +1122,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1155,9 +1155,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1167,7 +1167,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1200,9 +1200,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1212,7 +1212,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1245,9 +1245,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1455480</xdr:colOff>
+      <xdr:colOff>1455120</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>284400</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1257,7 +1257,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="4367520" cy="6726960"/>
+          <a:ext cx="4367160" cy="6726600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1291,8 +1291,8 @@
   </sheetPr>
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I21" activeCellId="0" sqref="I21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E15" activeCellId="0" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1827,8 +1827,8 @@
       <c r="D17" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="E17" s="22" t="n">
-        <v>0</v>
+      <c r="E17" s="22" t="s">
+        <v>46</v>
       </c>
       <c r="F17" s="23" t="s">
         <v>41</v>
